--- a/models/tests/test.xlsx
+++ b/models/tests/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d33b9418c277f6/Desktop/ycheba/hnure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D220CE6761B7AC72154D80450D47A683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97568CB1-DD01-4CE3-B6CB-9B4765F1EBD1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D220CE6761B7AC72154D80450D47A683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826B7CC1-13C1-49B1-BEDB-B45414F6F2B2}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1140" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>test</t>
   </si>
@@ -345,14 +345,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
